--- a/Library Management/out/production/Library Management/resources/form/DsSach.xlsx
+++ b/Library Management/out/production/Library Management/resources/form/DsSach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUST\IT3150 Project I - CNPM\Quan ly thu vien\Library Management\src\resources\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DC67D-F398-46AF-B1F3-1EDB4BDD6C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97DBEF-314B-4D3E-9CE6-22C90B0EA238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC3F1F71-C1CE-4233-8B50-7FB1D54F57D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A146871-5C2D-436F-A271-0B59F7EFC1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TRƯỜNG ĐẠI HỌC BÁCH KHOA HÀ NỘI
 Thư viện Tạ Quang Bửu
@@ -43,7 +43,7 @@
 ----------------------------------</t>
   </si>
   <si>
-    <t>Ngày 03 tháng 10 năm 2017</t>
+    <t>Ngày tháng năm</t>
   </si>
   <si>
     <t>THÔNG TIN ĐẦU SÁCH TRONG THƯ VIỆN</t>
@@ -58,22 +58,31 @@
     <t>Tên sách</t>
   </si>
   <si>
+    <t>Giá tiền</t>
+  </si>
+  <si>
     <t>Thể loại</t>
   </si>
   <si>
     <t>Tác giả</t>
   </si>
   <si>
-    <t>Nhà xuất bản</t>
-  </si>
-  <si>
-    <t>Năm xuất bản</t>
+    <t>Năm XB</t>
   </si>
   <si>
     <t>Ngôn ngữ</t>
   </si>
   <si>
-    <t>Số lượng</t>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
+  </si>
+  <si>
+    <t>NXB</t>
+  </si>
+  <si>
+    <t>Ngày thêm</t>
   </si>
 </sst>
 </file>
@@ -90,59 +99,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -154,49 +148,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -206,40 +160,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,22 +202,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
+      <xdr:colOff>325922</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>210206</xdr:rowOff>
+      <xdr:rowOff>192620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>546538</xdr:colOff>
+      <xdr:colOff>839615</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>74525</xdr:rowOff>
+      <xdr:rowOff>79213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048F33EE-6A2B-4896-BF34-3806F0E2EE93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3B6030-DAAA-4CE9-AE42-AFC5ADB995A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -300,8 +239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041838" y="210206"/>
-          <a:ext cx="513693" cy="768209"/>
+          <a:off x="1492368" y="192620"/>
+          <a:ext cx="513693" cy="783408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,150 +548,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5712187-1006-4C1D-BEB4-DFD5745292CE}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097A6C87-C4C2-4231-BB09-2F5264A4C09F}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+      <selection activeCell="G2" sqref="G2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>